--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhys\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhys\Documents\GitHub\nlp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CFDF67-EA57-45FE-A501-1D938DDADB24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52B7879-3D79-473B-8940-C4639032C598}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C46F4670-7076-44D7-84DE-D2FB9EF8FB31}"/>
   </bookViews>
@@ -112,11 +112,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFBFE937"/>
+      <color rgb="FFFF2121"/>
       <color rgb="FF99FF33"/>
       <color rgb="FFCCFF33"/>
-      <color rgb="FFBFE937"/>
       <color rgb="FF9BDF41"/>
-      <color rgb="FFFF2121"/>
       <color rgb="FFFF2F2F"/>
       <color rgb="FFCC0066"/>
       <color rgb="FFFF3300"/>
@@ -621,6 +621,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Random State = 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -653,234 +678,298 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$L$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Random Forest</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000">
-                <a:alpha val="85000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF2121">
-                  <a:alpha val="85000"/>
-                </a:srgbClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:alpha val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-B585-48E3-BAB1-BBF2BB2CE5E6}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF2121">
-                  <a:alpha val="85000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:alpha val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B585-48E3-BAB1-BBF2BB2CE5E6}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF2121">
-                  <a:alpha val="84706"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:alpha val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-B585-48E3-BAB1-BBF2BB2CE5E6}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>72.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.349999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48C8-4C0E-BAD6-54184FC67108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Logistic Regresion</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF2121"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF2121"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$11:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>77.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-48C8-4C0E-BAD6-54184FC67108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Gaussian Naïve Bayes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$20:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>51.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-48C8-4C0E-BAD6-54184FC67108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="567086936"/>
+        <c:axId val="567085624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="567086936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1050"/>
+                  <a:t>Test Size</a:t>
+                </a:r>
               </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$K$4:$K$6</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Gaussian Naïve Bayes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Random Forest</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Logistic Regression</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$4:$L$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>53.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>61.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>75.400000000000006</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B585-48E3-BAB1-BBF2BB2CE5E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="65"/>
-        <c:axId val="514675256"/>
-        <c:axId val="514679192"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="514675256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -918,7 +1007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514679192"/>
+        <c:crossAx val="567085624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -926,9 +1015,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514679192"/>
+        <c:axId val="567085624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -958,6 +1048,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1050"/>
+                  <a:t>Accuracy %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -989,7 +1134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514675256"/>
+        <c:crossAx val="567086936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1001,6 +1146,42 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2790,11 +2971,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2804,15 +2985,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Random</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> State</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t> = 1</a:t>
+              <a:t>Random State = 2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2830,11 +3003,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2859,7 +3032,7 @@
             <c:v>Random Forest</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2868,68 +3041,21 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:f>Sheet1!$B$5:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2947,18 +3073,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$4</c:f>
+              <c:f>Sheet1!$D$5:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>72.400000000000006</c:v>
+                  <c:v>72.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.45</c:v>
+                  <c:v>71.699999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.349999999999994</c:v>
+                  <c:v>64.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2966,7 +3092,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-48C8-4C0E-BAD6-54184FC67108}"/>
+              <c16:uniqueId val="{00000000-001A-408A-9F53-E0E298FCC1EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2977,77 +3103,30 @@
             <c:v>Logistic Regresion</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF2121"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="FF2121"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:f>Sheet1!$B$5:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3065,18 +3144,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$11:$D$13</c:f>
+              <c:f>Sheet1!$D$14:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>77.25</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.349999999999994</c:v>
+                  <c:v>76.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73</c:v>
+                  <c:v>72.949999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3084,7 +3163,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-48C8-4C0E-BAD6-54184FC67108}"/>
+              <c16:uniqueId val="{00000001-001A-408A-9F53-E0E298FCC1EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3095,77 +3174,30 @@
             <c:v>Gaussian Naïve Bayes</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:f>Sheet1!$B$5:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3183,18 +3215,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$20:$D$22</c:f>
+              <c:f>Sheet1!$D$23:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>51.45</c:v>
+                  <c:v>52.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.099999999999994</c:v>
+                  <c:v>57.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.2</c:v>
+                  <c:v>64.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3202,34 +3234,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-48C8-4C0E-BAD6-54184FC67108}"/>
+              <c16:uniqueId val="{00000002-001A-408A-9F53-E0E298FCC1EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="567086936"/>
         <c:axId val="567085624"/>
@@ -3248,11 +3266,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3261,7 +3279,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1050"/>
                   <a:t>Test Size</a:t>
                 </a:r>
               </a:p>
@@ -3280,11 +3298,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3297,16 +3315,16 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3318,11 +3336,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3348,6 +3366,32 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3355,11 +3399,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3368,7 +3412,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1050"/>
                   <a:t>Accuracy %</a:t>
                 </a:r>
               </a:p>
@@ -3387,11 +3431,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3404,7 +3448,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3419,11 +3463,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3439,19 +3483,7 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3462,7 +3494,12 @@
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3473,11 +3510,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3501,14 +3538,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -3554,11 +3607,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3568,15 +3621,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Random</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> State</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t> = 2</a:t>
+              <a:t>Random State = 3</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3594,11 +3639,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3623,7 +3668,7 @@
             <c:v>Random Forest</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3632,68 +3677,21 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$7</c:f>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3711,18 +3709,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$7</c:f>
+              <c:f>Sheet1!$D$8:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>72.199999999999989</c:v>
+                  <c:v>70.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.699999999999989</c:v>
+                  <c:v>71.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.7</c:v>
+                  <c:v>67.300000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3730,7 +3728,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-001A-408A-9F53-E0E298FCC1EE}"/>
+              <c16:uniqueId val="{00000000-6DF8-4D5B-B38C-E050F9C8257E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3741,77 +3739,30 @@
             <c:v>Logistic Regresion</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF2121"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="FF2121"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$7</c:f>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3829,18 +3780,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$14:$D$16</c:f>
+              <c:f>Sheet1!$D$17:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>77</c:v>
+                  <c:v>76.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.900000000000006</c:v>
+                  <c:v>75.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.949999999999989</c:v>
+                  <c:v>72.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3848,7 +3799,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-001A-408A-9F53-E0E298FCC1EE}"/>
+              <c16:uniqueId val="{00000001-6DF8-4D5B-B38C-E050F9C8257E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3859,99 +3810,32 @@
             <c:v>Gaussian Naïve Bayes</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:round/>
+              <a:headEnd w="sm" len="sm"/>
+              <a:tailEnd w="sm" len="sm"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.2360017497812775E-3"/>
-                  <c:y val="1.3304958183990441E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-001A-408A-9F53-E0E298FCC1EE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$7</c:f>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3969,18 +3853,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$23:$D$25</c:f>
+              <c:f>Sheet1!$D$26:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>52.599999999999994</c:v>
+                  <c:v>54.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.6</c:v>
+                  <c:v>57.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.8</c:v>
+                  <c:v>65.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3988,34 +3872,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-001A-408A-9F53-E0E298FCC1EE}"/>
+              <c16:uniqueId val="{00000002-6DF8-4D5B-B38C-E050F9C8257E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="567086936"/>
         <c:axId val="567085624"/>
@@ -4034,11 +3904,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -4047,7 +3917,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1050"/>
                   <a:t>Test Size</a:t>
                 </a:r>
               </a:p>
@@ -4066,11 +3936,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -4083,16 +3953,16 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -4104,11 +3974,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4134,6 +4004,32 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -4141,11 +4037,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -4154,7 +4050,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-US" sz="1050"/>
                   <a:t>Accuracy %</a:t>
                 </a:r>
               </a:p>
@@ -4173,11 +4069,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -4190,7 +4086,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -4205,11 +4101,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4225,19 +4121,7 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -4248,7 +4132,12 @@
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -4259,11 +4148,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -4287,14 +4176,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -4320,792 +4225,6 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Random</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> State</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t> = 3</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Random Forest</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$8:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>70.95</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67.300000000000011</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6DF8-4D5B-B38C-E050F9C8257E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Logistic Regresion</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$17:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>76.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>72.95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6DF8-4D5B-B38C-E050F9C8257E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Gaussian Naïve Bayes</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.243066491688549E-2"/>
-                  <c:y val="-3.2214755077658301E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6DF8-4D5B-B38C-E050F9C8257E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$26:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>54.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57.35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>65.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6DF8-4D5B-B38C-E050F9C8257E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
-        <c:smooth val="0"/>
-        <c:axId val="567086936"/>
-        <c:axId val="567085624"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="567086936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Test Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="567085624"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="567085624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="50"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Accuracy %</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="567086936"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5302,6 +4421,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Classifier</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -5379,6 +4553,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Precision</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -5411,6 +4648,493 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="433228824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050">
+                <a:alpha val="84706"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$4:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Gaussian Naïve Bayes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$4:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E86D-4C1D-AEEF-75E7DDFCA52C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="514672304"/>
+        <c:axId val="514664432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="514672304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Classifier</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514664432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="514664432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Recall %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514672304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5538,19 +5262,19 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$3</c:f>
+              <c:f>Sheet1!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Recall</c:v>
+                  <c:v>F1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="99FF33">
-                <a:alpha val="84706"/>
+              <a:srgbClr val="FF0000">
+                <a:alpha val="85000"/>
               </a:srgbClr>
             </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5564,6 +5288,84 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF2121">
+                  <a:alpha val="85000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-B585-48E3-BAB1-BBF2BB2CE5E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF2121">
+                  <a:alpha val="85000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B585-48E3-BAB1-BBF2BB2CE5E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF2121">
+                  <a:alpha val="84706"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-B585-48E3-BAB1-BBF2BB2CE5E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -5620,7 +5422,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$4:$I$6</c:f>
+              <c:f>Sheet1!$K$4:$K$6</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5637,25 +5439,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$4:$J$6</c:f>
+              <c:f>Sheet1!$L$4:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>50.9</c:v>
+                  <c:v>53.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.400000000000006</c:v>
+                  <c:v>61.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.599999999999994</c:v>
+                  <c:v>75.400000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E86D-4C1D-AEEF-75E7DDFCA52C}"/>
+              <c16:uniqueId val="{00000000-B585-48E3-BAB1-BBF2BB2CE5E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5669,16 +5471,71 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="514672304"/>
-        <c:axId val="514664432"/>
+        <c:axId val="514675256"/>
+        <c:axId val="514679192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514672304"/>
+        <c:axId val="514675256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Classifier</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -5716,7 +5573,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514664432"/>
+        <c:crossAx val="514679192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5724,7 +5581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514664432"/>
+        <c:axId val="514679192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5756,6 +5613,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>F1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -5787,7 +5704,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514672304"/>
+        <c:crossAx val="514675256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5900,9 +5817,12 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -6137,46 +6057,6 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent3"/>
@@ -6213,7 +6093,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -6250,6 +6130,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
@@ -6789,7 +6706,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6866,7 +6783,9 @@
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
@@ -6956,9 +6875,7 @@
     <cs:spPr>
       <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -6975,13 +6892,11 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -8973,18 +8888,18 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -8992,39 +8907,55 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9034,60 +8965,55 @@
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9095,21 +9021,24 @@
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9126,7 +9055,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9135,9 +9064,7 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -9149,15 +9076,9 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -9182,16 +9103,16 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -9208,8 +9129,8 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
@@ -9230,15 +9151,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -9257,6 +9177,7 @@
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -9276,13 +9197,26 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -9295,12 +9229,24 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -9319,6 +9265,7 @@
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -9333,8 +9280,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -9346,10 +9293,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea>
@@ -9359,21 +9314,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
   </cs:plotArea>
   <cs:plotArea3D>
     <cs:lnRef idx="0"/>
@@ -9389,16 +9329,16 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9417,11 +9357,11 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -9431,11 +9371,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -9447,7 +9387,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9460,8 +9400,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9493,11 +9433,16 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -9511,18 +9456,18 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -9530,39 +9475,55 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9572,60 +9533,55 @@
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9633,21 +9589,24 @@
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9664,7 +9623,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9673,9 +9632,7 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -9687,15 +9644,9 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -9720,16 +9671,16 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -9746,8 +9697,8 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
@@ -9768,15 +9719,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -9795,6 +9745,7 @@
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -9814,13 +9765,26 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -9833,12 +9797,24 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -9857,6 +9833,7 @@
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -9871,8 +9848,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -9884,10 +9861,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea>
@@ -9897,21 +9882,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
   </cs:plotArea>
   <cs:plotArea3D>
     <cs:lnRef idx="0"/>
@@ -9927,16 +9897,16 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9955,11 +9925,11 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -9969,11 +9939,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -9985,7 +9955,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9998,8 +9968,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -10031,11 +10001,16 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -10049,18 +10024,18 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -10068,39 +10043,55 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10113,57 +10104,50 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10171,21 +10155,24 @@
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10202,18 +10189,18 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -10223,17 +10210,13 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -10258,16 +10241,16 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -10284,8 +10267,8 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
@@ -10306,15 +10289,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -10333,6 +10315,7 @@
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -10352,13 +10335,26 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -10371,12 +10367,24 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -10395,6 +10403,7 @@
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -10409,8 +10418,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -10422,10 +10431,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea>
@@ -10435,21 +10452,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
   </cs:plotArea>
   <cs:plotArea3D>
     <cs:lnRef idx="0"/>
@@ -10465,16 +10467,16 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10493,11 +10495,11 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -10507,11 +10509,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -10523,7 +10525,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -10536,8 +10538,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -10569,11 +10571,16 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -11880,44 +11887,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>109500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33425A2B-C96D-4376-9993-706945685817}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
       <xdr:row>21</xdr:row>
@@ -11948,7 +11917,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11956,16 +11925,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>79020</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11986,7 +11955,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12022,7 +11991,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12058,7 +12027,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12087,6 +12056,44 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33425A2B-C96D-4376-9993-706945685817}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -12402,8 +12409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9ECDBE-7FB7-4701-8405-DCE6D6D75593}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
